--- a/genotypic-data/allele-calls-marker-by-germplasm.xlsx
+++ b/genotypic-data/allele-calls-marker-by-germplasm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\genotypic-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D25A92-8220-4ACE-9CD1-FA83961495A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC9F648-471C-4ED0-8295-13419509C8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="ATTRIBUTES" sheetId="6" r:id="rId3"/>
     <sheet name="COLLABORATORS" sheetId="5" r:id="rId4"/>
     <sheet name="LOCATION" sheetId="4" r:id="rId5"/>
-    <sheet name="DATA_EXAMPLE" sheetId="3" r:id="rId6"/>
+    <sheet name="TYPES" sheetId="7" r:id="rId6"/>
+    <sheet name="DATA_EXAMPLE" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -465,7 +466,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -495,19 +496,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -515,12 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
@@ -807,6 +797,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D5D6AE18-229D-43DC-96F5-987AE4D99636}" name="Table5" displayName="Table5" ref="A1:A5" totalsRowShown="0">
+  <autoFilter ref="A1:A5" xr:uid="{D5D6AE18-229D-43DC-96F5-987AE4D99636}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{05B65AFB-2141-4136-AAA5-6E45BE22924F}" name="ValidTypes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:K11" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lines/Markers"/>
@@ -1090,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1113,7 +1113,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1122,7 +1122,7 @@
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1212,102 +1212,102 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
@@ -1321,18 +1321,18 @@
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="6"/>
@@ -1376,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1394,7 +1394,7 @@
       <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1411,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD4B024-EABF-4FD3-9AD9-676301697CED}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H1" sqref="H1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1424,7 @@
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -1434,40 +1434,24 @@
       <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{46EB9FD0-BF46-4148-9328-13481A736B65}">
-      <formula1>$H$2:$H$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{46EB9FD0-BF46-4148-9328-13481A736B65}">
+          <x14:formula1>
+            <xm:f>TYPES!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1497,10 +1481,10 @@
       <c r="B1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -1515,7 +1499,7 @@
       <c r="H1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1526,10 +1510,10 @@
       <c r="B2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1598,6 +1582,52 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AC9EDD-7F88-4C8F-857D-6A86ADF2FEBC}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
